--- a/dfsym.xlsx
+++ b/dfsym.xlsx
@@ -20,8 +20,9 @@
 <office:document-content xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:style="urn:oasis:names:tc:opendocument:xmlns:style:1.0" xmlns:text="urn:oasis:names:tc:opendocument:xmlns:text:1.0" xmlns:table="urn:oasis:names:tc:opendocument:xmlns:table:1.0" xmlns:draw="urn:oasis:names:tc:opendocument:xmlns:drawing:1.0" xmlns:fo="urn:oasis:names:tc:opendocument:xmlns:xsl-fo-compatible:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:number="urn:oasis:names:tc:opendocument:xmlns:datastyle:1.0" xmlns:presentation="urn:oasis:names:tc:opendocument:xmlns:presentation:1.0" xmlns:svg="urn:oasis:names:tc:opendocument:xmlns:svg-compatible:1.0" xmlns:chart="urn:oasis:names:tc:opendocument:xmlns:chart:1.0" xmlns:dr3d="urn:oasis:names:tc:opendocument:xmlns:dr3d:1.0" xmlns:math="http://www.w3.org/1998/Math/MathML" xmlns:form="urn:oasis:names:tc:opendocument:xmlns:form:1.0" xmlns:script="urn:oasis:names:tc:opendocument:xmlns:script:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:ooow="http://openoffice.org/2004/writer" xmlns:oooc="http://openoffice.org/2004/calc" xmlns:dom="http://www.w3.org/2001/xml-events" xmlns:xforms="http://www.w3.org/2002/xforms" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:rpt="http://openoffice.org/2005/report" xmlns:of="urn:oasis:names:tc:opendocument:xmlns:of:1.2" xmlns:xhtml="http://www.w3.org/1999/xhtml" xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:tableooo="http://openoffice.org/2009/table" xmlns:field="urn:openoffice:names:experimental:ooo-ms-interop:xmlns:field:1.0" office:version="1.2">
   <office:scripts/>
   <office:font-face-decls>
+    <style:font-face style:name="Calibri" svg:font-family="Calibri" style:font-pitch="variable"/>
     <style:font-face style:name="Arial" svg:font-family="Arial" style:font-family-generic="swiss" style:font-pitch="variable"/>
-    <style:font-face style:name="Calibri" svg:font-family="Calibri" style:font-family-generic="swiss" style:font-pitch="variable"/>
+    <style:font-face style:name="Calibri1" svg:font-family="Calibri" style:font-family-generic="swiss" style:font-pitch="variable"/>
     <style:font-face style:name="돋움" svg:font-family="돋움" style:font-family-generic="swiss" style:font-pitch="variable"/>
     <style:font-face style:name="Arial1" svg:font-family="Arial" style:font-family-generic="system" style:font-pitch="variable"/>
     <style:font-face style:name="Lucida Sans Unicode" svg:font-family="'Lucida Sans Unicode'" style:font-family-generic="system" style:font-pitch="variable"/>
@@ -32,6 +33,12 @@
     <style:style style:name="co1" style:family="table-column">
       <style:table-column-properties fo:break-before="auto" style:column-width="1.707cm"/>
     </style:style>
+    <style:style style:name="co2" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="2.136cm"/>
+    </style:style>
+    <style:style style:name="co3" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="3.664cm"/>
+    </style:style>
     <style:style style:name="ro1" style:family="table-row">
       <style:table-row-properties style:row-height="0.496cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
@@ -39,9 +46,16 @@
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
     </style:style>
     <style:style style:name="ce1" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border="0.035cm solid #000000" style:rotation-align="none"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="10pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="10pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="10pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="ce2" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border="0.035cm solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="top"/>
       <style:paragraph-properties fo:text-align="center" fo:margin-left="0cm" style:writing-mode="page"/>
-      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="ce3" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="10pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="10pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="10pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
   </office:automatic-styles>
   <office:body>
@@ -51,46 +65,49 @@
       </table:calculation-settings>
       <table:table table:name="Sheet1" table:style-name="ta1" table:print="false">
         <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
-        <table:table-column table:style-name="co1" table:number-columns-repeated="1024" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+        <table:table-column table:style-name="co1" table:number-columns-repeated="6" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+        <table:table-column table:style-name="co2" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+        <table:table-column table:style-name="co3" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+        <table:table-column table:style-name="co1" table:number-columns-repeated="1016" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-row table:style-name="ro1">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce2" office:value-type="string">
             <text:p>symbol</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce2" office:value-type="string">
             <text:p>leverage</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce2" office:value-type="string">
             <text:p>period</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce2" office:value-type="string">
             <text:p>portion</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce2" office:value-type="string">
             <text:p>type</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce2" office:value-type="string">
             <text:p>maxcount</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce2" office:value-type="string">
             <text:p>maxsoldtime</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce2" office:value-type="string">
             <text:p>amount</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce2" office:value-type="string">
             <text:p>high</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce2" office:value-type="string">
             <text:p>low</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce2" office:value-type="string">
             <text:p>count</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce2" office:value-type="string">
             <text:p>soldtime</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce2" office:value-type="string">
             <text:p>rehistodf</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1010"/>
@@ -99,23 +116,26 @@
           <table:table-cell table:style-name="ce1" office:value-type="float" office:value="1">
             <text:p>1</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="string">
             <text:p>BTC/USDT</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="10">
-            <text:p>10</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="25">
+            <text:p>25</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="string">
             <text:p>1h</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="0.05">
-            <text:p>0.05</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.1">
+            <text:p>0.1</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="string">
             <text:p>None</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="2" office:value-type="float" office:value="50">
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="50">
             <text:p>50</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="100">
+            <text:p>100</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1016"/>
         </table:table-row>
@@ -123,26 +143,26 @@
           <table:table-cell table:style-name="ce1" office:value-type="float" office:value="2">
             <text:p>2</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="string">
             <text:p>BTC/USDT</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="10">
-            <text:p>10</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>4h</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="0.1">
-            <text:p>0.1</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="25">
+            <text:p>25</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="string">
+            <text:p>8h</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.4">
+            <text:p>0.4</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="string">
             <text:p>None</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="50">
-            <text:p>50</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="70">
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="70">
             <text:p>70</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="150">
+            <text:p>150</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1016"/>
         </table:table-row>
@@ -150,26 +170,26 @@
           <table:table-cell table:style-name="ce1" office:value-type="float" office:value="3">
             <text:p>3</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="string">
             <text:p>BTC/USDT</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="10">
-            <text:p>10</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>1w</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="0.4">
-            <text:p>0.4</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="25">
+            <text:p>25</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="string">
+            <text:p>3d</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.3">
+            <text:p>0.3</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="string">
             <text:p>None</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="50">
-            <text:p>50</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="100">
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="100">
             <text:p>100</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="250">
+            <text:p>250</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1016"/>
         </table:table-row>
@@ -177,30 +197,57 @@
           <table:table-cell table:style-name="ce1" office:value-type="float" office:value="4">
             <text:p>4</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="string">
             <text:p>ETH/USDT</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="7">
-            <text:p>7</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>2h</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="0.05">
-            <text:p>0.05</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="10">
+            <text:p>10</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="string">
+            <text:p>3d</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.15">
+            <text:p>0.15</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="string">
             <text:p>None</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="50">
-            <text:p>50</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60">
-            <text:p>60</text:p>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="70">
+            <text:p>70</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="250">
+            <text:p>250</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1016"/>
         </table:table-row>
-        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048570">
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:style-name="ce1" office:value-type="float" office:value="5">
+            <text:p>5</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>BNB/USDT</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="15">
+            <text:p>15</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>8h</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.1">
+            <text:p>0.1</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="string">
+            <text:p>None</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="70">
+            <text:p>70</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="200">
+            <text:p>200</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1016"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048569">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -215,12 +262,10 @@
 <file path=meta.xml><?xml version="1.0" encoding="utf-8"?>
 <office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:grddl="http://www.w3.org/2003/g/data-view#" office:version="1.2">
   <office:meta>
-    <dc:date>2021-10-14T01:09:22.11</dc:date>
+    <dc:date>2021-10-18T23:09:38.56</dc:date>
     <dc:creator>hyunseung kim</dc:creator>
+    <meta:document-statistic meta:table-count="1" meta:cell-count="53" meta:object-count="0"/>
     <meta:generator>OpenOffice/4.1.10$Win32 OpenOffice.org_project/4110m2$Build-9807</meta:generator>
-    <meta:editing-duration>PT1M14S</meta:editing-duration>
-    <meta:editing-cycles>1</meta:editing-cycles>
-    <meta:document-statistic meta:table-count="1" meta:cell-count="45" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -231,15 +276,15 @@
     <config:config-item-set config:name="ooo:view-settings">
       <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
-      <config:config-item config:name="VisibleAreaWidth" config:type="int">23814</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">2469</config:config-item>
+      <config:config-item config:name="VisibleAreaWidth" config:type="int">26190</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">2962</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
-              <config:config-item config:name="CursorPositionX" config:type="int">8</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">9</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">4</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">5</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -314,8 +359,9 @@
 <file path=styles.xml><?xml version="1.0" encoding="utf-8"?>
 <office:document-styles xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:style="urn:oasis:names:tc:opendocument:xmlns:style:1.0" xmlns:text="urn:oasis:names:tc:opendocument:xmlns:text:1.0" xmlns:table="urn:oasis:names:tc:opendocument:xmlns:table:1.0" xmlns:draw="urn:oasis:names:tc:opendocument:xmlns:drawing:1.0" xmlns:fo="urn:oasis:names:tc:opendocument:xmlns:xsl-fo-compatible:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:number="urn:oasis:names:tc:opendocument:xmlns:datastyle:1.0" xmlns:presentation="urn:oasis:names:tc:opendocument:xmlns:presentation:1.0" xmlns:svg="urn:oasis:names:tc:opendocument:xmlns:svg-compatible:1.0" xmlns:chart="urn:oasis:names:tc:opendocument:xmlns:chart:1.0" xmlns:dr3d="urn:oasis:names:tc:opendocument:xmlns:dr3d:1.0" xmlns:math="http://www.w3.org/1998/Math/MathML" xmlns:form="urn:oasis:names:tc:opendocument:xmlns:form:1.0" xmlns:script="urn:oasis:names:tc:opendocument:xmlns:script:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:ooow="http://openoffice.org/2004/writer" xmlns:oooc="http://openoffice.org/2004/calc" xmlns:dom="http://www.w3.org/2001/xml-events" xmlns:rpt="http://openoffice.org/2005/report" xmlns:of="urn:oasis:names:tc:opendocument:xmlns:of:1.2" xmlns:xhtml="http://www.w3.org/1999/xhtml" xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:tableooo="http://openoffice.org/2009/table" office:version="1.2">
   <office:font-face-decls>
+    <style:font-face style:name="Calibri" svg:font-family="Calibri" style:font-pitch="variable"/>
     <style:font-face style:name="Arial" svg:font-family="Arial" style:font-family-generic="swiss" style:font-pitch="variable"/>
-    <style:font-face style:name="Calibri" svg:font-family="Calibri" style:font-family-generic="swiss" style:font-pitch="variable"/>
+    <style:font-face style:name="Calibri1" svg:font-family="Calibri" style:font-family-generic="swiss" style:font-pitch="variable"/>
     <style:font-face style:name="돋움" svg:font-family="돋움" style:font-family-generic="swiss" style:font-pitch="variable"/>
     <style:font-face style:name="Arial1" svg:font-family="Arial" style:font-family-generic="system" style:font-pitch="variable"/>
     <style:font-face style:name="Lucida Sans Unicode" svg:font-family="'Lucida Sans Unicode'" style:font-family-generic="system" style:font-pitch="variable"/>
@@ -344,74 +390,88 @@
     <number:number-style style:name="N8000" number:language="ko" number:country="KR">
       <number:number number:min-integer-digits="1"/>
     </number:number-style>
+    <number:number-style style:name="N8147P0" style:volatile="true" number:language="ko" number:country="KR">
+      <number:text>₩</number:text>
+      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+    </number:number-style>
+    <number:number-style style:name="N8147" number:language="ko" number:country="KR">
+      <number:text>-₩</number:text>
+      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8147P0"/>
+    </number:number-style>
     <number:number-style style:name="N8148P0" style:volatile="true" number:language="ko" number:country="KR">
       <number:text>₩</number:text>
       <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
     </number:number-style>
     <number:number-style style:name="N8148" number:language="ko" number:country="KR">
+      <style:text-properties fo:color="#ff0000"/>
       <number:text>-₩</number:text>
       <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <style:map style:condition="value()&gt;=0" style:apply-style-name="N8148P0"/>
     </number:number-style>
     <number:number-style style:name="N8149P0" style:volatile="true" number:language="ko" number:country="KR">
       <number:text>₩</number:text>
-      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
     </number:number-style>
     <number:number-style style:name="N8149" number:language="ko" number:country="KR">
+      <number:text>-₩</number:text>
+      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8149P0"/>
+    </number:number-style>
+    <number:number-style style:name="N8150P0" style:volatile="true" number:language="ko" number:country="KR">
+      <number:text>₩</number:text>
+      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+    </number:number-style>
+    <number:number-style style:name="N8150" number:language="ko" number:country="KR">
       <style:text-properties fo:color="#ff0000"/>
       <number:text>-₩</number:text>
-      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8149P0"/>
-    </number:number-style>
-    <number:number-style style:name="N8151P0" style:volatile="true" number:language="ko" number:country="KR">
-      <number:text>₩</number:text>
-      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-    </number:number-style>
-    <number:number-style style:name="N8151" number:language="ko" number:country="KR">
-      <number:text>-₩</number:text>
-      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8151P0"/>
-    </number:number-style>
-    <number:number-style style:name="N8152P0" style:volatile="true" number:language="ko" number:country="KR">
-      <number:text>₩</number:text>
-      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-    </number:number-style>
-    <number:number-style style:name="N8152" number:language="ko" number:country="KR">
-      <style:text-properties fo:color="#ff0000"/>
-      <number:text>-₩</number:text>
-      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8152P0"/>
-    </number:number-style>
+      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8150P0"/>
+    </number:number-style>
+    <number:date-style style:name="N8151" number:language="ko" number:country="KR">
+      <number:year number:style="long"/>
+      <number:text>-</number:text>
+      <number:month number:style="long"/>
+      <number:text>-</number:text>
+      <number:day number:style="long"/>
+    </number:date-style>
+    <number:date-style style:name="N8152" number:language="ko" number:country="KR">
+      <number:day number:style="long"/>
+      <number:text>-</number:text>
+      <number:month number:textual="true"/>
+      <number:text>-</number:text>
+      <number:year/>
+    </number:date-style>
     <number:date-style style:name="N8153" number:language="ko" number:country="KR">
-      <number:year number:style="long"/>
-      <number:text>-</number:text>
-      <number:month number:style="long"/>
-      <number:text>-</number:text>
       <number:day number:style="long"/>
+      <number:text>-</number:text>
+      <number:month number:textual="true"/>
     </number:date-style>
     <number:date-style style:name="N8154" number:language="ko" number:country="KR">
-      <number:day number:style="long"/>
-      <number:text>-</number:text>
       <number:month number:textual="true"/>
       <number:text>-</number:text>
       <number:year/>
     </number:date-style>
-    <number:date-style style:name="N8155" number:language="ko" number:country="KR">
-      <number:day number:style="long"/>
-      <number:text>-</number:text>
-      <number:month number:textual="true"/>
-    </number:date-style>
-    <number:date-style style:name="N8156" number:language="ko" number:country="KR">
-      <number:month number:textual="true"/>
-      <number:text>-</number:text>
-      <number:year/>
-    </number:date-style>
+    <number:time-style style:name="N8155" number:language="ko" number:country="KR">
+      <number:hours/>
+      <number:text>:</number:text>
+      <number:minutes number:style="long"/>
+      <number:text> </number:text>
+      <number:am-pm/>
+    </number:time-style>
+    <number:time-style style:name="N8156" number:language="ko" number:country="KR">
+      <number:hours/>
+      <number:text>:</number:text>
+      <number:minutes number:style="long"/>
+      <number:text>:</number:text>
+      <number:seconds number:style="long"/>
+      <number:text> </number:text>
+      <number:am-pm/>
+    </number:time-style>
     <number:time-style style:name="N8157" number:language="ko" number:country="KR">
       <number:hours/>
       <number:text>:</number:text>
       <number:minutes number:style="long"/>
-      <number:text> </number:text>
-      <number:am-pm/>
     </number:time-style>
     <number:time-style style:name="N8158" number:language="ko" number:country="KR">
       <number:hours/>
@@ -419,79 +479,65 @@
       <number:minutes number:style="long"/>
       <number:text>:</number:text>
       <number:seconds number:style="long"/>
-      <number:text> </number:text>
-      <number:am-pm/>
     </number:time-style>
-    <number:time-style style:name="N8159" number:language="ko" number:country="KR">
+    <number:date-style style:name="N8159" number:language="ko" number:country="KR">
+      <number:year number:style="long"/>
+      <number:text>-</number:text>
+      <number:month number:style="long"/>
+      <number:text>-</number:text>
+      <number:day number:style="long"/>
+      <number:text> </number:text>
       <number:hours/>
       <number:text>:</number:text>
       <number:minutes number:style="long"/>
-    </number:time-style>
-    <number:time-style style:name="N8160" number:language="ko" number:country="KR">
-      <number:hours/>
-      <number:text>:</number:text>
-      <number:minutes number:style="long"/>
-      <number:text>:</number:text>
-      <number:seconds number:style="long"/>
-    </number:time-style>
-    <number:date-style style:name="N8161" number:language="ko" number:country="KR">
-      <number:year number:style="long"/>
-      <number:text>-</number:text>
-      <number:month number:style="long"/>
-      <number:text>-</number:text>
-      <number:day number:style="long"/>
-      <number:text> </number:text>
-      <number:hours/>
-      <number:text>:</number:text>
-      <number:minutes number:style="long"/>
-    </number:date-style>
-    <number:number-style style:name="N8163P0" style:volatile="true" number:language="ko" number:country="KR">
+    </number:date-style>
+    <number:currency-style style:name="N8160P0" style:volatile="true" number:language="ko" number:country="KR">
       <number:text>$</number:text>
       <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
-    </number:number-style>
-    <number:number-style style:name="N8163" number:language="ko" number:country="KR">
+    </number:currency-style>
+    <number:currency-style style:name="N8160" number:language="ko" number:country="KR">
       <number:text>($</number:text>
       <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8160P0"/>
+    </number:currency-style>
+    <number:currency-style style:name="N8161P0" style:volatile="true" number:language="ko" number:country="KR">
+      <number:text>$</number:text>
+      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:currency-style>
+    <number:currency-style style:name="N8161" number:language="ko" number:country="KR">
+      <style:text-properties fo:color="#ff0000"/>
+      <number:text>($</number:text>
+      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8161P0"/>
+    </number:currency-style>
+    <number:currency-style style:name="N8162P0" style:volatile="true" number:language="ko" number:country="KR">
+      <number:text>$</number:text>
+      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:currency-style>
+    <number:currency-style style:name="N8162" number:language="ko" number:country="KR">
+      <number:text>($</number:text>
+      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8162P0"/>
+    </number:currency-style>
+    <number:currency-style style:name="N8163P0" style:volatile="true" number:language="ko" number:country="KR">
+      <number:text>$</number:text>
+      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:currency-style>
+    <number:currency-style style:name="N8163" number:language="ko" number:country="KR">
+      <style:text-properties fo:color="#ff0000"/>
+      <number:text>($</number:text>
+      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
       <style:map style:condition="value()&gt;=0" style:apply-style-name="N8163P0"/>
-    </number:number-style>
-    <number:number-style style:name="N8164P0" style:volatile="true" number:language="ko" number:country="KR">
-      <number:text>$</number:text>
-      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:number-style>
-    <number:number-style style:name="N8164" number:language="ko" number:country="KR">
-      <style:text-properties fo:color="#ff0000"/>
-      <number:text>($</number:text>
-      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8164P0"/>
-    </number:number-style>
-    <number:number-style style:name="N8166P0" style:volatile="true" number:language="ko" number:country="KR">
-      <number:text>$</number:text>
-      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:number-style>
-    <number:number-style style:name="N8166" number:language="ko" number:country="KR">
-      <number:text>($</number:text>
-      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8166P0"/>
-    </number:number-style>
-    <number:number-style style:name="N8167P0" style:volatile="true" number:language="ko" number:country="KR">
-      <number:text>$</number:text>
-      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:number-style>
-    <number:number-style style:name="N8167" number:language="ko" number:country="KR">
-      <style:text-properties fo:color="#ff0000"/>
-      <number:text>($</number:text>
-      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8167P0"/>
-    </number:number-style>
-    <number:date-style style:name="N8168" number:language="ko" number:country="KR">
+    </number:currency-style>
+    <number:date-style style:name="N8164" number:language="ko" number:country="KR">
       <number:year number:style="long"/>
       <number:text>年 </number:text>
       <number:month number:style="long"/>
@@ -499,19 +545,19 @@
       <number:day number:style="long"/>
       <number:text>日</number:text>
     </number:date-style>
-    <number:date-style style:name="N8169" number:language="ko" number:country="KR">
+    <number:date-style style:name="N8165" number:language="ko" number:country="KR">
       <number:month number:style="long"/>
       <number:text>-</number:text>
       <number:day number:style="long"/>
     </number:date-style>
-    <number:date-style style:name="N8170" number:language="ko" number:country="KR">
+    <number:date-style style:name="N8166" number:language="ko" number:country="KR">
       <number:month number:style="long"/>
       <number:text>-</number:text>
       <number:day number:style="long"/>
       <number:text>-</number:text>
       <number:year/>
     </number:date-style>
-    <number:date-style style:name="N8171" number:language="ko" number:country="KR">
+    <number:date-style style:name="N8167" number:language="ko" number:country="KR">
       <number:year number:style="long"/>
       <number:text>년 </number:text>
       <number:month number:style="long"/>
@@ -519,13 +565,13 @@
       <number:day number:style="long"/>
       <number:text>일</number:text>
     </number:date-style>
-    <number:time-style style:name="N8172" number:language="ko" number:country="KR">
+    <number:time-style style:name="N8168" number:language="ko" number:country="KR">
       <number:hours/>
       <number:text>시</number:text>
       <number:minutes number:style="long"/>
       <number:text>분</number:text>
     </number:time-style>
-    <number:time-style style:name="N8173" number:language="ko" number:country="KR">
+    <number:time-style style:name="N8169" number:language="ko" number:country="KR">
       <number:hours/>
       <number:text>시</number:text>
       <number:minutes number:style="long"/>
@@ -533,147 +579,153 @@
       <number:seconds number:style="long"/>
       <number:text>초</number:text>
     </number:time-style>
-    <number:date-style style:name="N8174" number:language="ko" number:country="KR">
+    <number:date-style style:name="N8170" number:language="ko" number:country="KR">
       <number:year number:style="long"/>
       <number:text>/</number:text>
       <number:month number:style="long"/>
       <number:text>/</number:text>
       <number:day number:style="long"/>
     </number:date-style>
+    <number:number-style style:name="N8171P0" style:volatile="true" number:language="ko" number:country="KR">
+      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+    </number:number-style>
+    <number:number-style style:name="N8171" number:language="ko" number:country="KR">
+      <number:text>-</number:text>
+      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8171P0"/>
+    </number:number-style>
+    <number:number-style style:name="N8172P0" style:volatile="true" number:language="ko" number:country="KR">
+      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+    </number:number-style>
+    <number:number-style style:name="N8172" number:language="ko" number:country="KR">
+      <style:text-properties fo:color="#ff0000"/>
+      <number:text>-</number:text>
+      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8172P0"/>
+    </number:number-style>
+    <number:number-style style:name="N8173P0" style:volatile="true" number:language="ko" number:country="KR">
+      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+    </number:number-style>
+    <number:number-style style:name="N8173" number:language="ko" number:country="KR">
+      <number:text>-</number:text>
+      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8173P0"/>
+    </number:number-style>
+    <number:number-style style:name="N8174P0" style:volatile="true" number:language="ko" number:country="KR">
+      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+    </number:number-style>
+    <number:number-style style:name="N8174" number:language="ko" number:country="KR">
+      <style:text-properties fo:color="#ff0000"/>
+      <number:text>-</number:text>
+      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8174P0"/>
+    </number:number-style>
     <number:number-style style:name="N8175P0" style:volatile="true" number:language="ko" number:country="KR">
-      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-    </number:number-style>
-    <number:number-style style:name="N8175" number:language="ko" number:country="KR">
-      <number:text>-</number:text>
-      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8175P0"/>
-    </number:number-style>
+      <number:text> </number:text>
+      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:number-style>
+    <number:number-style style:name="N8175P1" style:volatile="true" number:language="ko" number:country="KR">
+      <number:text>-</number:text>
+      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:number-style>
+    <number:number-style style:name="N8175P2" style:volatile="true" number:language="ko" number:country="KR">
+      <number:text> - </number:text>
+    </number:number-style>
+    <number:text-style style:name="N8175" number:language="ko" number:country="KR">
+      <number:text> </number:text>
+      <number:text-content/>
+      <number:text> </number:text>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N8175P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N8175P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N8175P2"/>
+    </number:text-style>
     <number:number-style style:name="N8176P0" style:volatile="true" number:language="ko" number:country="KR">
-      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-    </number:number-style>
-    <number:number-style style:name="N8176" number:language="ko" number:country="KR">
-      <style:text-properties fo:color="#ff0000"/>
-      <number:text>-</number:text>
-      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8176P0"/>
-    </number:number-style>
+      <number:text> ₩</number:text>
+      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:number-style>
+    <number:number-style style:name="N8176P1" style:volatile="true" number:language="ko" number:country="KR">
+      <number:text>-₩</number:text>
+      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:number-style>
+    <number:number-style style:name="N8176P2" style:volatile="true" number:language="ko" number:country="KR">
+      <number:text> ₩- </number:text>
+    </number:number-style>
+    <number:text-style style:name="N8176" number:language="ko" number:country="KR">
+      <number:text> </number:text>
+      <number:text-content/>
+      <number:text> </number:text>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N8176P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N8176P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N8176P2"/>
+    </number:text-style>
     <number:number-style style:name="N8177P0" style:volatile="true" number:language="ko" number:country="KR">
-      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-    </number:number-style>
-    <number:number-style style:name="N8177" number:language="ko" number:country="KR">
-      <number:text>-</number:text>
-      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8177P0"/>
-    </number:number-style>
-    <number:number-style style:name="N8178P0" style:volatile="true" number:language="ko" number:country="KR">
-      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-    </number:number-style>
-    <number:number-style style:name="N8178" number:language="ko" number:country="KR">
-      <style:text-properties fo:color="#ff0000"/>
-      <number:text>-</number:text>
-      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8178P0"/>
-    </number:number-style>
-    <number:number-style style:name="N8182P0" style:volatile="true" number:language="ko" number:country="KR">
-      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:number-style>
-    <number:number-style style:name="N8182P1" style:volatile="true" number:language="ko" number:country="KR">
-      <number:text>-</number:text>
-      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:number-style>
-    <number:number-style style:name="N8182P2" style:volatile="true" number:language="ko" number:country="KR">
-      <number:text> - </number:text>
-    </number:number-style>
-    <number:text-style style:name="N8182" number:language="ko" number:country="KR">
-      <number:text-content/>
-      <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N8182P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N8182P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N8182P2"/>
-    </number:text-style>
-    <number:number-style style:name="N8186P0" style:volatile="true" number:language="ko" number:country="KR">
-      <number:text> ₩</number:text>
-      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:number-style>
-    <number:number-style style:name="N8186P1" style:volatile="true" number:language="ko" number:country="KR">
-      <number:text>-₩</number:text>
-      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:number-style>
-    <number:number-style style:name="N8186P2" style:volatile="true" number:language="ko" number:country="KR">
-      <number:text> ₩- </number:text>
-    </number:number-style>
-    <number:text-style style:name="N8186" number:language="ko" number:country="KR">
-      <number:text-content/>
-      <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N8186P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N8186P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N8186P2"/>
-    </number:text-style>
-    <number:number-style style:name="N8190P0" style:volatile="true" number:language="ko" number:country="KR">
-      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:number-style>
-    <number:number-style style:name="N8190P1" style:volatile="true" number:language="ko" number:country="KR">
-      <number:text>-</number:text>
-      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:number-style>
-    <number:number-style style:name="N8190P2" style:volatile="true" number:language="ko" number:country="KR">
+      <number:text> </number:text>
+      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:number-style>
+    <number:number-style style:name="N8177P1" style:volatile="true" number:language="ko" number:country="KR">
+      <number:text>-</number:text>
+      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:number-style>
+    <number:number-style style:name="N8177P2" style:volatile="true" number:language="ko" number:country="KR">
       <number:text> -</number:text>
       <number:number number:decimal-places="0" number:min-integer-digits="0"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:text-style style:name="N8190" number:language="ko" number:country="KR">
+    <number:text-style style:name="N8177" number:language="ko" number:country="KR">
+      <number:text> </number:text>
       <number:text-content/>
       <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N8190P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N8190P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N8190P2"/>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N8177P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N8177P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N8177P2"/>
     </number:text-style>
-    <number:number-style style:name="N8194P0" style:volatile="true" number:language="ko" number:country="KR">
+    <number:number-style style:name="N8178P0" style:volatile="true" number:language="ko" number:country="KR">
       <number:text> ₩</number:text>
       <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:number-style style:name="N8194P1" style:volatile="true" number:language="ko" number:country="KR">
+    <number:number-style style:name="N8178P1" style:volatile="true" number:language="ko" number:country="KR">
       <number:text>-₩</number:text>
       <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:number-style style:name="N8194P2" style:volatile="true" number:language="ko" number:country="KR">
+    <number:number-style style:name="N8178P2" style:volatile="true" number:language="ko" number:country="KR">
       <number:text> ₩-</number:text>
       <number:number number:decimal-places="0" number:min-integer-digits="0"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:text-style style:name="N8194" number:language="ko" number:country="KR">
+    <number:text-style style:name="N8178" number:language="ko" number:country="KR">
+      <number:text> </number:text>
       <number:text-content/>
       <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N8194P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N8194P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N8194P2"/>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N8178P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N8178P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N8178P2"/>
     </number:text-style>
-    <number:time-style style:name="N8195" number:language="ko" number:country="KR">
+    <number:time-style style:name="N8179" number:language="ko" number:country="KR">
       <number:minutes number:style="long"/>
       <number:text>:</number:text>
       <number:seconds number:style="long"/>
     </number:time-style>
-    <number:time-style style:name="N8196" number:language="ko" number:country="KR" number:truncate-on-overflow="false">
+    <number:time-style style:name="N8180" number:language="ko" number:country="KR" number:truncate-on-overflow="false">
       <number:hours/>
       <number:text>:</number:text>
       <number:minutes number:style="long"/>
       <number:text>:</number:text>
       <number:seconds number:style="long"/>
     </number:time-style>
-    <number:time-style style:name="N8197" number:language="ko" number:country="KR">
+    <number:time-style style:name="N8181" number:language="ko" number:country="KR">
       <number:minutes number:style="long"/>
       <number:text>:</number:text>
       <number:seconds number:style="long" number:decimal-places="1"/>
     </number:time-style>
-    <number:number-style style:name="N8198" number:language="ko" number:country="KR">
+    <number:number-style style:name="N8182" number:language="ko" number:country="KR">
       <number:scientific-number number:decimal-places="1" number:min-integer-digits="3" number:min-exponent-digits="1"/>
     </number:number-style>
     <style:style style:name="Default" style:family="table-cell">
@@ -694,7 +746,7 @@
     <style:style style:name="Excel_20_Built-in_20_Normal" style:display-name="Excel Built-in Normal" style:family="table-cell" style:parent-style-name="Default" style:data-style-name="N8000">
       <style:table-cell-properties style:cell-protect="protected" style:print-content="true" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" fo:border="none" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
       <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
-      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
   </office:styles>
   <office:automatic-styles>
@@ -758,9 +810,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2021-10-14">2021-10-14</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2021-10-18">2021-10-18</text:date>
             , 
-            <text:time>01:09:22</text:time>
+            <text:time>23:09:39</text:time>
           </text:p>
         </style:region-right>
       </style:header>

--- a/dfsym.xlsx
+++ b/dfsym.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -64,6 +64,51 @@
     <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
   </si>
   <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
     <t>symbol</t>
   </si>
   <si>
@@ -112,16 +157,13 @@
     <t>BNB/USDT</t>
   </si>
   <si>
+    <t>15m</t>
+  </si>
+  <si>
     <t>1h</t>
   </si>
   <si>
-    <t>4h</t>
-  </si>
-  <si>
     <t>8h</t>
-  </si>
-  <si>
-    <t>3d</t>
   </si>
 </sst>
 </file>
@@ -479,13 +521,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD6"/>
+  <dimension ref="A1:AS6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,8 +615,53 @@
       <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -626,47 +713,92 @@
       <c r="Q2">
         <v>0</v>
       </c>
-      <c r="R2" t="s">
-        <v>29</v>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>30</v>
-      </c>
-      <c r="T2" t="s">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
       </c>
       <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH2">
+        <v>20</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ2">
         <v>0.15</v>
       </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
         <v>40</v>
       </c>
-      <c r="X2">
-        <v>500</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
+      <c r="AM2">
+        <v>100</v>
+      </c>
+      <c r="AN2">
+        <v>0.093</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -718,319 +850,499 @@
       <c r="Q3">
         <v>1</v>
       </c>
-      <c r="R3" t="s">
-        <v>29</v>
+      <c r="R3">
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>30</v>
-      </c>
-      <c r="T3" t="s">
-        <v>33</v>
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
       </c>
       <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH3">
+        <v>20</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ3">
         <v>0.2</v>
       </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
         <v>60</v>
       </c>
-      <c r="X3">
+      <c r="AM3">
+        <v>300</v>
+      </c>
+      <c r="AN3">
+        <v>0.028</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="W4">
+        <v>2</v>
+      </c>
+      <c r="X4">
+        <v>2</v>
+      </c>
+      <c r="Y4">
+        <v>2</v>
+      </c>
+      <c r="Z4">
+        <v>2</v>
+      </c>
+      <c r="AA4">
+        <v>2</v>
+      </c>
+      <c r="AB4">
+        <v>2</v>
+      </c>
+      <c r="AC4">
+        <v>2</v>
+      </c>
+      <c r="AD4">
+        <v>2</v>
+      </c>
+      <c r="AE4">
+        <v>2</v>
+      </c>
+      <c r="AF4">
+        <v>2</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH4">
+        <v>20</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ4">
+        <v>0.15</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>60</v>
+      </c>
+      <c r="AM4">
         <v>1000</v>
       </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4">
-        <v>2</v>
-      </c>
-      <c r="P4">
-        <v>2</v>
-      </c>
-      <c r="Q4">
-        <v>2</v>
-      </c>
-      <c r="R4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S4">
-        <v>30</v>
-      </c>
-      <c r="T4" t="s">
-        <v>34</v>
-      </c>
-      <c r="U4">
+    <row r="5" spans="1:45">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="T5">
+        <v>3</v>
+      </c>
+      <c r="U5">
+        <v>3</v>
+      </c>
+      <c r="V5">
+        <v>3</v>
+      </c>
+      <c r="W5">
+        <v>3</v>
+      </c>
+      <c r="X5">
+        <v>3</v>
+      </c>
+      <c r="Y5">
+        <v>3</v>
+      </c>
+      <c r="Z5">
+        <v>3</v>
+      </c>
+      <c r="AA5">
+        <v>3</v>
+      </c>
+      <c r="AB5">
+        <v>3</v>
+      </c>
+      <c r="AC5">
+        <v>3</v>
+      </c>
+      <c r="AD5">
+        <v>3</v>
+      </c>
+      <c r="AE5">
+        <v>3</v>
+      </c>
+      <c r="AF5">
+        <v>3</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH5">
+        <v>10</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ5">
         <v>0.2</v>
       </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
         <v>60</v>
       </c>
-      <c r="X4">
+      <c r="AM5">
         <v>1000</v>
       </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>1434</v>
-      </c>
-      <c r="AD4">
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>3</v>
-      </c>
-      <c r="M5">
-        <v>3</v>
-      </c>
-      <c r="N5">
-        <v>3</v>
-      </c>
-      <c r="O5">
-        <v>3</v>
-      </c>
-      <c r="P5">
-        <v>3</v>
-      </c>
-      <c r="Q5">
-        <v>3</v>
-      </c>
-      <c r="R5" t="s">
-        <v>30</v>
-      </c>
-      <c r="S5">
-        <v>10</v>
-      </c>
-      <c r="T5" t="s">
-        <v>35</v>
-      </c>
-      <c r="U5">
+    <row r="6" spans="1:45">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <v>4</v>
+      </c>
+      <c r="U6">
+        <v>4</v>
+      </c>
+      <c r="V6">
+        <v>4</v>
+      </c>
+      <c r="W6">
+        <v>4</v>
+      </c>
+      <c r="X6">
+        <v>4</v>
+      </c>
+      <c r="Y6">
+        <v>4</v>
+      </c>
+      <c r="Z6">
+        <v>4</v>
+      </c>
+      <c r="AA6">
+        <v>4</v>
+      </c>
+      <c r="AB6">
+        <v>4</v>
+      </c>
+      <c r="AC6">
+        <v>4</v>
+      </c>
+      <c r="AD6">
+        <v>4</v>
+      </c>
+      <c r="AE6">
+        <v>4</v>
+      </c>
+      <c r="AF6">
+        <v>4</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH6">
+        <v>15</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ6">
         <v>0.1</v>
       </c>
-      <c r="V5">
-        <v>1</v>
-      </c>
-      <c r="W5">
-        <v>60</v>
-      </c>
-      <c r="X5">
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>50</v>
+      </c>
+      <c r="AM6">
         <v>1000</v>
       </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6">
-        <v>4</v>
-      </c>
-      <c r="K6">
-        <v>4</v>
-      </c>
-      <c r="L6">
-        <v>4</v>
-      </c>
-      <c r="M6">
-        <v>4</v>
-      </c>
-      <c r="N6">
-        <v>4</v>
-      </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
-      <c r="P6">
-        <v>4</v>
-      </c>
-      <c r="Q6">
-        <v>4</v>
-      </c>
-      <c r="R6" t="s">
-        <v>31</v>
-      </c>
-      <c r="S6">
-        <v>15</v>
-      </c>
-      <c r="T6" t="s">
-        <v>34</v>
-      </c>
-      <c r="U6">
-        <v>0.05</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>50</v>
-      </c>
-      <c r="X6">
-        <v>1000</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>365</v>
-      </c>
-      <c r="AD6">
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
         <v>0</v>
       </c>
     </row>
